--- a/papers/2022/February/10th/nuvi_card_slots.xlsx
+++ b/papers/2022/February/10th/nuvi_card_slots.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="14">
   <si>
     <t>fm transmitter</t>
   </si>
@@ -68,6 +69,9 @@
   <si>
     <t>Count of fm transmitter</t>
   </si>
+  <si>
+    <t>not_available</t>
+  </si>
 </sst>
 </file>
 
@@ -83,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -122,6 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,6 +148,2470 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[nuvi_card_slots.xlsx]Sheet2!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>microSD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no/yes/yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>microSD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>microSD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="588211648"/>
+        <c:axId val="588201312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="588211648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588201312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="588201312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588211648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>	memory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> slots vs count of fm transmitters</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>microSD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>no</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no/yes/yes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>no</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no/yes/yes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>not_available</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>no</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no/yes/yes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1040720720"/>
+        <c:axId val="1040716912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1040720720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040716912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1040716912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040720720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,7 +2850,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:E6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" dataField="1" showAll="0">
@@ -437,6 +2912,44 @@
   <dataFields count="1">
     <dataField name="Count of fm transmitter" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -711,8 +3224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,6 +3329,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -823,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,4 +3742,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>